--- a/test/resources/definitionsFiles/fe-automation-definition-v08_showandhide.xlsx
+++ b/test/resources/definitionsFiles/fe-automation-definition-v08_showandhide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/Definition Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C62F9B-CB8C-954B-97B4-6A09AA9A64F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C6676E-2DE0-3B43-B045-EFF8653C2B2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19800" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,9 @@
     <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId19"/>
     <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId20"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEvent!$A$19:$T$19</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="521">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1564,9 +1567,6 @@
   </si>
   <si>
     <t>#TABLE(AddressLine1)</t>
-  </si>
-  <si>
-    <t>#TABLE(AddressLine1, AddressLine1, AddressLine1,Country)</t>
   </si>
   <si>
     <t>DisplayContextParameter</t>
@@ -1697,7 +1697,7 @@
     <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1967,6 +1967,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2165,7 +2170,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2366,6 +2371,9 @@
     <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="42" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="42" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="42" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3714,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38:N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3879,7 +3887,7 @@
         <v>215</v>
       </c>
       <c r="N3" s="138" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>216</v>
@@ -4981,10 +4989,10 @@
         <v>285</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F25" s="120">
         <v>1</v>
@@ -4993,10 +5001,10 @@
         <v>218</v>
       </c>
       <c r="H25" s="106" t="s">
+        <v>485</v>
+      </c>
+      <c r="I25" s="106" t="s">
         <v>486</v>
-      </c>
-      <c r="I25" s="106" t="s">
-        <v>487</v>
       </c>
       <c r="J25" s="121">
         <v>1</v>
@@ -5032,7 +5040,7 @@
         <v>285</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E26" s="138" t="s">
         <v>478</v>
@@ -5044,10 +5052,10 @@
         <v>218</v>
       </c>
       <c r="H26" s="138" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I26" s="138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J26" s="141">
         <v>1</v>
@@ -5055,9 +5063,7 @@
       <c r="K26" s="142"/>
       <c r="L26" s="142"/>
       <c r="M26" s="142"/>
-      <c r="N26" s="143" t="s">
-        <v>481</v>
-      </c>
+      <c r="N26" s="143"/>
       <c r="O26" s="137" t="s">
         <v>195</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>193</v>
       </c>
       <c r="E46" s="165" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F46" s="162">
         <v>3</v>
@@ -6079,10 +6085,10 @@
       </c>
       <c r="K46" s="162"/>
       <c r="M46" s="162"/>
-      <c r="N46" s="161" t="s">
+      <c r="N46" s="161"/>
+      <c r="O46" s="184" t="s">
         <v>195</v>
       </c>
-      <c r="O46" s="162"/>
       <c r="P46" s="162"/>
       <c r="Q46" s="162"/>
       <c r="R46" s="162"/>
@@ -6106,7 +6112,7 @@
         <v>397</v>
       </c>
       <c r="D47" s="167" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E47" s="167" t="s">
         <v>66</v>
@@ -6129,10 +6135,10 @@
       <c r="K47" s="168"/>
       <c r="L47" s="168"/>
       <c r="M47" s="168"/>
-      <c r="N47" s="167" t="s">
+      <c r="N47" s="167"/>
+      <c r="O47" s="185" t="s">
         <v>195</v>
       </c>
-      <c r="O47" s="168"/>
       <c r="P47" s="168"/>
       <c r="Q47" s="168"/>
       <c r="R47" s="168"/>
@@ -6156,16 +6162,16 @@
         <v>397</v>
       </c>
       <c r="D48" s="161" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E48" s="165" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F48" s="162">
         <v>2</v>
       </c>
       <c r="G48" s="161" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H48" s="161" t="s">
         <v>402</v>
@@ -6178,13 +6184,13 @@
       </c>
       <c r="K48" s="162"/>
       <c r="L48" s="150" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M48" s="162"/>
-      <c r="N48" s="161" t="s">
+      <c r="N48" s="161"/>
+      <c r="O48" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="O48" s="162"/>
       <c r="P48" s="162"/>
       <c r="Q48" s="162"/>
       <c r="R48" s="162"/>
@@ -6208,7 +6214,7 @@
         <v>397</v>
       </c>
       <c r="D49" s="161" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E49" s="151" t="s">
         <v>79</v>
@@ -6230,10 +6236,10 @@
       </c>
       <c r="K49" s="162"/>
       <c r="M49" s="162"/>
-      <c r="N49" s="161" t="s">
+      <c r="N49" s="161"/>
+      <c r="O49" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="O49" s="162"/>
       <c r="P49" s="162"/>
       <c r="Q49" s="162"/>
       <c r="R49" s="162"/>
@@ -6257,7 +6263,7 @@
         <v>397</v>
       </c>
       <c r="D50" s="161" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E50" s="151" t="s">
         <v>71</v>
@@ -6269,22 +6275,22 @@
         <v>218</v>
       </c>
       <c r="H50" s="161" t="s">
+        <v>506</v>
+      </c>
+      <c r="I50" s="161" t="s">
         <v>507</v>
-      </c>
-      <c r="I50" s="161" t="s">
-        <v>508</v>
       </c>
       <c r="J50" s="163">
         <v>3</v>
       </c>
       <c r="K50" s="162"/>
       <c r="M50" s="165" t="s">
-        <v>509</v>
-      </c>
-      <c r="N50" s="161" t="s">
+        <v>508</v>
+      </c>
+      <c r="N50" s="161"/>
+      <c r="O50" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="O50" s="162"/>
       <c r="P50" s="162"/>
       <c r="Q50" s="162"/>
       <c r="R50" s="162"/>
@@ -6307,10 +6313,10 @@
         <v>397</v>
       </c>
       <c r="D51" s="161" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E51" s="151" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F51" s="171">
         <v>2</v>
@@ -6319,15 +6325,16 @@
         <v>218</v>
       </c>
       <c r="H51" s="161" t="s">
+        <v>509</v>
+      </c>
+      <c r="I51" s="161" t="s">
         <v>510</v>
-      </c>
-      <c r="I51" s="161" t="s">
-        <v>511</v>
       </c>
       <c r="J51" s="172">
         <v>4</v>
       </c>
-      <c r="N51" s="161" t="s">
+      <c r="N51" s="161"/>
+      <c r="O51" s="186" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6702,7 +6709,7 @@
         <v>288</v>
       </c>
       <c r="F18" s="175" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G18" s="176">
         <v>6</v>
@@ -6723,7 +6730,7 @@
         <v>292</v>
       </c>
       <c r="F19" s="175" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G19" s="176">
         <v>5</v>
@@ -6744,7 +6751,7 @@
         <v>290</v>
       </c>
       <c r="F20" s="175" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G20" s="176">
         <v>4</v>
@@ -6765,7 +6772,7 @@
         <v>294</v>
       </c>
       <c r="F21" s="175" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G21" s="176">
         <v>3</v>
@@ -6783,7 +6790,7 @@
         <v>311</v>
       </c>
       <c r="E22" s="174" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F22" s="175" t="s">
         <v>105</v>
@@ -7113,7 +7120,7 @@
         <v>454</v>
       </c>
       <c r="E7" s="175" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F7" s="175" t="s">
         <v>12</v>
@@ -7236,7 +7243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -7613,7 +7620,7 @@
         <v>288</v>
       </c>
       <c r="F19" s="175" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G19" s="176">
         <v>2</v>
@@ -7634,7 +7641,7 @@
         <v>292</v>
       </c>
       <c r="F20" s="175" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G20" s="176">
         <v>3</v>
@@ -7655,7 +7662,7 @@
         <v>290</v>
       </c>
       <c r="F21" s="175" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G21" s="176">
         <v>4</v>
@@ -7676,7 +7683,7 @@
         <v>294</v>
       </c>
       <c r="F22" s="175" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G22" s="176">
         <v>5</v>
@@ -7694,7 +7701,7 @@
         <v>311</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F23" s="175" t="s">
         <v>105</v>
@@ -7961,7 +7968,7 @@
         <v>454</v>
       </c>
       <c r="E7" s="175" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F7" s="176">
         <v>2</v>
@@ -9105,7 +9112,7 @@
         <v>285</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E28" t="s">
         <v>271</v>
@@ -9657,7 +9664,7 @@
         <v>397</v>
       </c>
       <c r="D52" s="165" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E52" s="149" t="s">
         <v>271</v>
@@ -9716,7 +9723,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="151" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E55" s="149" t="s">
         <v>271</v>
@@ -10087,7 +10094,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E10" s="125" t="s">
         <v>271</v>
@@ -10110,7 +10117,7 @@
         <v>285</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E11" s="125" t="s">
         <v>271</v>
@@ -10317,7 +10324,7 @@
         <v>397</v>
       </c>
       <c r="D20" s="161" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E20" s="183" t="s">
         <v>271</v>
@@ -10344,8 +10351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10669,7 +10676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -11017,7 +11024,7 @@
         <v>397</v>
       </c>
       <c r="D15" s="161" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E15" s="183" t="s">
         <v>271</v>
@@ -14806,10 +14813,10 @@
         <v>285</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="57" t="s">
@@ -21295,10 +21302,10 @@
         <v>397</v>
       </c>
       <c r="D53" s="151" t="s">
+        <v>494</v>
+      </c>
+      <c r="E53" s="151" t="s">
         <v>495</v>
-      </c>
-      <c r="E53" s="151" t="s">
-        <v>496</v>
       </c>
       <c r="G53" s="150" t="s">
         <v>60</v>
@@ -21321,7 +21328,7 @@
         <v>79</v>
       </c>
       <c r="E54" s="151" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G54" s="150" t="s">
         <v>52</v>
@@ -21341,7 +21348,7 @@
         <v>71</v>
       </c>
       <c r="E55" s="151" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G55" s="150" t="s">
         <v>54</v>
@@ -21358,10 +21365,10 @@
         <v>397</v>
       </c>
       <c r="D56" s="151" t="s">
+        <v>498</v>
+      </c>
+      <c r="E56" s="151" t="s">
         <v>499</v>
-      </c>
-      <c r="E56" s="151" t="s">
-        <v>500</v>
       </c>
       <c r="G56" s="150" t="s">
         <v>70</v>
@@ -22403,14 +22410,14 @@
         <v>287</v>
       </c>
       <c r="D31" s="174" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E31" s="167" t="s">
         <v>429</v>
       </c>
       <c r="F31" s="168"/>
       <c r="G31" s="174" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H31" s="167"/>
       <c r="I31" s="168"/>
@@ -22508,7 +22515,7 @@
       </c>
       <c r="F34" s="166"/>
       <c r="G34" s="181" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H34" s="166"/>
       <c r="I34" s="166"/>
@@ -22636,7 +22643,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23310,7 +23317,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23427,7 +23434,7 @@
         <v>154</v>
       </c>
       <c r="L3" s="147" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -24058,16 +24065,16 @@
         <v>157</v>
       </c>
       <c r="E23" s="113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F23" s="114" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G23" s="135">
         <v>1</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I23" s="115">
         <v>1</v>
@@ -24075,7 +24082,7 @@
       <c r="J23" s="116"/>
       <c r="K23" s="116"/>
       <c r="L23" s="143" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M23" s="116"/>
       <c r="N23" s="116"/>
@@ -24092,7 +24099,7 @@
         <v>157</v>
       </c>
       <c r="E24" s="138" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F24" s="139" t="s">
         <v>479</v>
@@ -24459,7 +24466,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I35" s="155">
         <v>1</v>
@@ -24542,7 +24549,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="159" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I38" s="160">
         <v>4</v>
@@ -24910,10 +24917,10 @@
         <v>397</v>
       </c>
       <c r="D14" s="161" t="s">
+        <v>500</v>
+      </c>
+      <c r="E14" s="161" t="s">
         <v>501</v>
-      </c>
-      <c r="E14" s="161" t="s">
-        <v>502</v>
       </c>
       <c r="F14" s="162"/>
       <c r="G14" s="163">
@@ -24939,7 +24946,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25333,13 +25340,13 @@
         <v>285</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E9" s="109" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F9" s="109" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G9" s="122">
         <v>2</v>
@@ -25373,13 +25380,13 @@
         <v>285</v>
       </c>
       <c r="D10" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" s="109" t="s">
         <v>492</v>
       </c>
-      <c r="E10" s="109" t="s">
-        <v>493</v>
-      </c>
       <c r="F10" s="109" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G10" s="122">
         <v>3</v>
@@ -25751,13 +25758,13 @@
         <v>397</v>
       </c>
       <c r="D19" s="161" t="s">
+        <v>502</v>
+      </c>
+      <c r="E19" s="161" t="s">
         <v>503</v>
       </c>
-      <c r="E19" s="161" t="s">
-        <v>504</v>
-      </c>
       <c r="F19" s="161" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G19" s="163">
         <v>1</v>
@@ -25766,7 +25773,7 @@
         <v>166</v>
       </c>
       <c r="I19" s="161" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J19" s="164"/>
       <c r="K19" s="164"/>
@@ -25785,6 +25792,7 @@
       <c r="T19" s="161"/>
     </row>
   </sheetData>
+  <autoFilter ref="A19:T19" xr:uid="{95342A27-3A4B-8C4F-86F5-7C46F5FDA107}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
